--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -841,6 +841,51 @@
     <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,51 +905,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1219,8 +1219,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1241,41 +1241,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1299,65 +1299,65 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="40">
         <v>44909</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="47">
+      <c r="D5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="40">
         <v>44911</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="42">
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="51" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="52"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="A6" s="18"/>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="33">
         <v>44914</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="40">
+      <c r="D6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="33">
         <v>44918</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="35">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="41" t="s">
+      <c r="H6" s="36"/>
+      <c r="I6" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="45"/>
+      <c r="L6" s="38"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B7" s="6" t="s">
@@ -1494,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>6</v>
@@ -1502,9 +1502,9 @@
       <c r="E11" s="7">
         <v>44953</v>
       </c>
-      <c r="F11" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="F11" s="31">
+        <f>DAYS360(C11,E11)+1</f>
+        <v>3</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>38</v>
@@ -1839,7 +1839,7 @@
       <c r="I21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="53" t="s">
+      <c r="J21" s="46" t="s">
         <v>44</v>
       </c>
       <c r="K21" s="12" t="s">
@@ -2035,7 +2035,7 @@
       <c r="I27" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="46" t="s">
         <v>47</v>
       </c>
       <c r="K27" s="12" t="s">
@@ -2231,7 +2231,7 @@
       <c r="I33" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="53" t="s">
+      <c r="J33" s="46" t="s">
         <v>51</v>
       </c>
       <c r="K33" s="12" t="s">
@@ -2274,36 +2274,36 @@
       <c r="E35" s="1"/>
       <c r="F35" s="4">
         <f>SUM(F5:F34)</f>
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -853,9 +853,6 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -886,6 +883,27 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,25 +925,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1262,41 +1262,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1320,131 +1320,131 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>44909</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="40">
+      <c r="D5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="39">
         <v>44911</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="44" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="45"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="47">
         <v>44914</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="55">
+      <c r="D6" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="47">
         <v>44918</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="49">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="50"/>
+      <c r="I6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="60"/>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="47">
         <v>44921</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="33">
+      <c r="D7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="47">
         <v>44925</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="50"/>
+      <c r="I7" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="52"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="33">
         <v>44928</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="33">
         <v>44932</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="60">
         <v>44929</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="13"/>
+      <c r="L8" s="37"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B9" s="6" t="s">
@@ -1860,7 +1860,7 @@
       <c r="I21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="45" t="s">
         <v>44</v>
       </c>
       <c r="K21" s="12" t="s">
@@ -2056,7 +2056,7 @@
       <c r="I27" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="46" t="s">
+      <c r="J27" s="45" t="s">
         <v>47</v>
       </c>
       <c r="K27" s="12" t="s">
@@ -2252,7 +2252,7 @@
       <c r="I33" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="46" t="s">
+      <c r="J33" s="45" t="s">
         <v>51</v>
       </c>
       <c r="K33" s="12" t="s">
@@ -2299,32 +2299,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">
